--- a/Data/FA Grants Tables - Python.xlsx
+++ b/Data/FA Grants Tables - Python.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\fa_grants\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{348C1813-E953-4AC6-A079-273A74CCAB19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95977890-DB5F-4FA4-8CD0-23E7E1D63BE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" activeTab="1" xr2:uid="{9C061C2B-ECB6-3244-B9B3-7FA6E57D33A2}"/>
+    <workbookView xWindow="42885" yWindow="-16200" windowWidth="14610" windowHeight="15585" firstSheet="4" activeTab="6" xr2:uid="{9C061C2B-ECB6-3244-B9B3-7FA6E57D33A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Grants" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
     <sheet name="ACLG" sheetId="12" r:id="rId12"/>
     <sheet name="Projections" sheetId="13" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="191029" calcOnSave="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -18389,7 +18389,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B4D0D00-1F70-CA46-A2ED-FB8C18762B60}">
   <dimension ref="A1:O68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
+    <sheetView zoomScale="85" workbookViewId="0">
       <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
@@ -28349,8 +28349,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62DE3395-E897-9D4F-8ACC-079FE890ABE8}">
   <dimension ref="A1:I69"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScale="138" workbookViewId="0">
-      <selection activeCell="D66" sqref="D66"/>
+    <sheetView tabSelected="1" zoomScale="138" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.84765625" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
@@ -28968,7 +28968,7 @@
         <v>327</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>346</v>
+        <v>1081</v>
       </c>
       <c r="C21" t="s">
         <v>690</v>
@@ -28990,7 +28990,7 @@
       </c>
       <c r="I21" t="str">
         <f>VLOOKUP(B21, ACLG!A:B, 2, FALSE)</f>
-        <v>UDM</v>
+        <v>UFS</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.6">
@@ -30442,8 +30442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9449833C-D4A2-2C41-8724-2FE9941231B0}">
   <dimension ref="A1:H138"/>
   <sheetViews>
-    <sheetView zoomScale="134" workbookViewId="0">
-      <selection activeCell="D126" sqref="D126"/>
+    <sheetView topLeftCell="A64" zoomScale="134" workbookViewId="0">
+      <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.84765625" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
@@ -32135,7 +32135,7 @@
         <v>392</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>406</v>
+        <v>1072</v>
       </c>
       <c r="C63" t="s">
         <v>801</v>
@@ -32154,7 +32154,7 @@
       </c>
       <c r="H63" t="str">
         <f>VLOOKUP(B63, ACLG!A:B, 2, FALSE)</f>
-        <v>URM</v>
+        <v>URS</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.6">
